--- a/NddcPayroll.Web/wwwroot/New Jan-Coop-Upload.xlsx
+++ b/NddcPayroll.Web/wwwroot/New Jan-Coop-Upload.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.tolofari\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DDB360-2472-4BF9-93B6-9F90F150C6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326159EF-DB3D-42A6-8AC8-A57474B6AF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4E95945-BFDF-4A59-8C19-02D6E56B146D}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -98,12 +98,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -422,809 +421,809 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9226D4-2FE2-43B8-B97A-C521372DFA99}">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
         <v>3177</v>
       </c>
       <c r="B4" s="1">
         <v>15430.185043584999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
         <v>2056</v>
       </c>
       <c r="B5" s="1">
         <v>19598.161248765999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
         <v>2367</v>
       </c>
       <c r="B6" s="1">
         <v>20000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
         <v>3194</v>
       </c>
       <c r="B7" s="1">
         <v>20000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
         <v>2011</v>
       </c>
       <c r="B8" s="1">
         <v>20553.095545852</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
         <v>519</v>
       </c>
       <c r="B9" s="1">
         <v>21023.882039874999</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
         <v>1890</v>
       </c>
       <c r="B10" s="1">
         <v>23846.044557179001</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
         <v>1927</v>
       </c>
       <c r="B11" s="1">
         <v>24119.281020941002</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
         <v>2039</v>
       </c>
       <c r="B12" s="1">
         <v>24373.531181443999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
         <v>2441</v>
       </c>
       <c r="B13" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
         <v>2515</v>
       </c>
       <c r="B14" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
         <v>2522</v>
       </c>
       <c r="B15" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
         <v>2915</v>
       </c>
       <c r="B16" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="2">
         <v>2918</v>
       </c>
       <c r="B17" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="2">
         <v>2029</v>
       </c>
       <c r="B18" s="1">
         <v>26372.550815005001</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="2">
         <v>115</v>
       </c>
       <c r="B19" s="1">
         <v>26982.914955249998</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="2">
         <v>1849</v>
       </c>
       <c r="B20" s="1">
         <v>28762.528177175998</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="2">
         <v>3242</v>
       </c>
       <c r="B21" s="1">
         <v>30000</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="2">
         <v>1888</v>
       </c>
       <c r="B22" s="1">
         <v>33933.307999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="2">
         <v>2863</v>
       </c>
       <c r="B23" s="1">
         <v>35000</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="2">
         <v>3079</v>
       </c>
       <c r="B24" s="1">
         <v>35000</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="2">
         <v>3083</v>
       </c>
       <c r="B25" s="1">
         <v>35000</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="2">
         <v>510</v>
       </c>
       <c r="B26" s="1">
         <v>35166.629999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="2">
         <v>1822</v>
       </c>
       <c r="B27" s="1">
         <v>35208.287499999999</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="2">
         <v>1839</v>
       </c>
       <c r="B28" s="1">
         <v>37261.132866065003</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="2">
         <v>1827</v>
       </c>
       <c r="B29" s="1">
         <v>38320.858655953998</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="2">
         <v>1449</v>
       </c>
       <c r="B30" s="1">
         <v>39536.858778374</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="2">
         <v>1439</v>
       </c>
       <c r="B31" s="1">
         <v>39790.099819417002</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="2">
         <v>1403</v>
       </c>
       <c r="B32" s="1">
         <v>40208.287499999999</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="2">
         <v>2021</v>
       </c>
       <c r="B33" s="1">
         <v>43652.188844459997</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="2">
         <v>1842</v>
       </c>
       <c r="B34" s="1">
         <v>43704.998516590997</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="2">
         <v>2110</v>
       </c>
       <c r="B35" s="1">
         <v>44838.118820071002</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="2">
         <v>3060</v>
       </c>
       <c r="B36" s="1">
         <v>45000</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="2">
         <v>3063</v>
       </c>
       <c r="B37" s="1">
         <v>47000</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="2">
         <v>313</v>
       </c>
       <c r="B38" s="1">
         <v>48331.728755821001</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="2">
         <v>2053</v>
       </c>
       <c r="B39" s="1">
         <v>48369.489487165003</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="2">
         <v>2014</v>
       </c>
       <c r="B40" s="1">
         <v>48780.667038086001</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="2">
         <v>2093</v>
       </c>
       <c r="B41" s="1">
         <v>48800.824006064999</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" s="2">
         <v>2030</v>
       </c>
       <c r="B42" s="1">
         <v>48846.897785815003</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" s="2">
         <v>1850</v>
       </c>
       <c r="B43" s="1">
         <v>49027.810581140999</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" s="2">
         <v>1862</v>
       </c>
       <c r="B44" s="1">
         <v>50525.886149769998</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" s="2">
         <v>1390</v>
       </c>
       <c r="B45" s="1">
         <v>50965.695313818003</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" s="2">
         <v>1441</v>
       </c>
       <c r="B46" s="1">
         <v>54502.918600639998</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" s="2">
         <v>590</v>
       </c>
       <c r="B47" s="1">
         <v>55666.62</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" s="2">
         <v>2037</v>
       </c>
       <c r="B48" s="1">
         <v>57944.745609427999</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" s="2">
         <v>1941</v>
       </c>
       <c r="B49" s="1">
         <v>58910.450485449001</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" s="2">
         <v>1133</v>
       </c>
       <c r="B50" s="1">
         <v>59994.709923139002</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" s="2">
         <v>645</v>
       </c>
       <c r="B51" s="1">
         <v>63933.307999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" s="2">
         <v>1173</v>
       </c>
       <c r="B52" s="1">
         <v>65520.768750000003</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" s="2">
         <v>2016</v>
       </c>
       <c r="B53" s="1">
         <v>65744.611427828</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54" s="2">
         <v>360</v>
       </c>
       <c r="B54" s="1">
         <v>65911.053225205993</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55" s="2">
         <v>1215</v>
       </c>
       <c r="B55" s="1">
         <v>66182.962779341993</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56" s="2">
         <v>2073</v>
       </c>
       <c r="B56" s="1">
         <v>66522.774579649995</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57" s="2">
         <v>1006</v>
       </c>
       <c r="B57" s="1">
         <v>66874.887499999997</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58" s="2">
         <v>2105</v>
       </c>
       <c r="B58" s="1">
         <v>67000</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B59" s="1">
         <v>67000</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60" s="2">
         <v>2066</v>
       </c>
       <c r="B60" s="1">
         <v>69084.710489724996</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61" s="2">
         <v>2033</v>
       </c>
       <c r="B61" s="1">
         <v>69445.224699427999</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62" s="2">
         <v>357</v>
       </c>
       <c r="B62" s="1">
         <v>70000</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63" s="2">
         <v>80</v>
       </c>
       <c r="B63" s="1">
         <v>70770.229306990994</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64" s="2">
         <v>559</v>
       </c>
       <c r="B64" s="1">
         <v>72416.634999999995</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65" s="2">
         <v>1434</v>
       </c>
       <c r="B65" s="1">
         <v>73903.467093518004</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66" s="2">
         <v>2067</v>
       </c>
       <c r="B66" s="1">
         <v>79081.337345858003</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67" s="2">
         <v>95</v>
       </c>
       <c r="B67" s="1">
         <v>79564.057747069994</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68" s="2">
         <v>1209</v>
       </c>
       <c r="B68" s="1">
         <v>80165.306593150002</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69" s="2">
         <v>1515</v>
       </c>
       <c r="B69" s="1">
         <v>80499.990000000005</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70" s="2">
         <v>2108</v>
       </c>
       <c r="B70" s="1">
         <v>80615.314469024001</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71" s="2">
         <v>1394</v>
       </c>
       <c r="B71" s="1">
         <v>82469.300955130006</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72" s="2">
         <v>1219</v>
       </c>
       <c r="B72" s="1">
         <v>83645.370243155005</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73" s="2">
         <v>1868</v>
       </c>
       <c r="B73" s="1">
         <v>85926.928264490998</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74" s="2">
         <v>1360</v>
       </c>
       <c r="B74" s="1">
         <v>87204.492788678006</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A75" s="2">
         <v>1200</v>
       </c>
       <c r="B75" s="1">
         <v>87660.770675747</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76" s="2">
         <v>530</v>
       </c>
       <c r="B76" s="1">
         <v>87698.258956360994</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77" s="2">
         <v>570</v>
       </c>
       <c r="B77" s="1">
         <v>88711.161515942003</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78" s="2">
         <v>644</v>
       </c>
       <c r="B78" s="1">
         <v>90124.687912555994</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A79" s="2">
         <v>646</v>
       </c>
       <c r="B79" s="1">
         <v>90297.256669907001</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80" s="2">
         <v>359</v>
       </c>
       <c r="B80" s="1">
         <v>90333.26</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81" s="2">
         <v>2887</v>
       </c>
       <c r="B81" s="1">
         <v>100000</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82" s="2">
         <v>905</v>
       </c>
       <c r="B82" s="1">
         <v>100000</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A83" s="2">
         <v>718</v>
       </c>
       <c r="B83" s="1">
         <v>101159.25514967</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A84" s="2">
         <v>1513</v>
       </c>
       <c r="B84" s="1">
         <v>107346.69256643001</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A85" s="2">
         <v>1356</v>
       </c>
       <c r="B85" s="1">
         <v>108437.39375</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A86" s="2">
         <v>440</v>
       </c>
       <c r="B86" s="1">
         <v>109619.829633446</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A87" s="2">
         <v>770</v>
       </c>
       <c r="B87" s="1">
         <v>111036.84082372399</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A88" s="2">
         <v>580</v>
       </c>
       <c r="B88" s="1">
         <v>120917.300660701</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A89" s="2">
         <v>1275</v>
       </c>
       <c r="B89" s="1">
         <v>123667.092189958</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A90" s="2">
         <v>1385</v>
       </c>
       <c r="B90" s="1">
         <v>126213.54714419199</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A91" s="2">
         <v>1440</v>
       </c>
       <c r="B91" s="1">
         <v>141176.27609428199</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A92" s="2">
         <v>965</v>
       </c>
       <c r="B92" s="1">
         <v>172728.58452338001</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A93" s="2">
         <v>613</v>
       </c>
       <c r="B93" s="1">
         <v>176815.69781931301</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A94" s="2">
         <v>569</v>
       </c>
       <c r="B94" s="1">
         <v>180768.44142414199</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A95" s="2">
         <v>1229</v>
       </c>
       <c r="B95" s="1">
         <v>184810.71450583101</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A96" s="2">
         <v>1781</v>
       </c>
       <c r="B96" s="1">
         <v>225952.04280476199</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A97" s="2">
         <v>1239</v>
       </c>
       <c r="B97" s="1">
         <v>246065.35430947901</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A98" s="2">
         <v>198</v>
       </c>
       <c r="B98" s="1">
         <v>249305.35836111099</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A99" s="2">
         <v>995</v>
       </c>
       <c r="B99" s="1">
         <v>294605.82167059003</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A100" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B100" s="1">
